--- a/Data/Общая таблица МБ — копия.xlsx
+++ b/Data/Общая таблица МБ — копия.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="101">
   <si>
     <t>Индекс коморбидности</t>
   </si>
@@ -302,6 +302,30 @@
   <si>
     <t>альбумин</t>
   </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>295.0</t>
+  </si>
+  <si>
+    <t>540.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
 </sst>
 </file>
 
@@ -464,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -797,6 +821,9 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -819,6 +846,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1125,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W137"/>
+  <dimension ref="A1:W138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q83" sqref="Q83"/>
+    <sheetView tabSelected="1" topLeftCell="B118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V138" sqref="V138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,30 +1189,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="118" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="76"/>
       <c r="E1" s="107"/>
       <c r="F1" s="76"/>
-      <c r="G1" s="117" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="118" t="s">
+      <c r="G1" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
       <c r="O1" s="115"/>
       <c r="P1" s="103"/>
       <c r="Q1" s="85"/>
@@ -1186,9 +1225,9 @@
       <c r="V1" s="93"/>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="76" t="s">
         <v>91</v>
       </c>
@@ -1198,7 +1237,7 @@
       <c r="F2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="117"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="76" t="s">
         <v>9</v>
       </c>
@@ -10422,6 +10461,74 @@
       </c>
       <c r="V137" s="91">
         <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A138" s="126">
+        <v>498167</v>
+      </c>
+      <c r="B138" s="126" t="s">
+        <v>93</v>
+      </c>
+      <c r="C138" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="D138" s="127">
+        <v>95.4</v>
+      </c>
+      <c r="E138" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="F138" s="127">
+        <v>7.07</v>
+      </c>
+      <c r="G138" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="H138" s="127">
+        <v>19.8</v>
+      </c>
+      <c r="I138" s="127">
+        <v>31.4</v>
+      </c>
+      <c r="J138" s="127">
+        <v>17.7</v>
+      </c>
+      <c r="K138" s="127">
+        <v>3.7</v>
+      </c>
+      <c r="L138" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="M138" s="128">
+        <v>14.2</v>
+      </c>
+      <c r="N138" s="128">
+        <v>6.2</v>
+      </c>
+      <c r="O138" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="P138" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q138" s="126">
+        <v>3</v>
+      </c>
+      <c r="R138" s="126">
+        <v>29</v>
+      </c>
+      <c r="S138" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="T138" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="U138" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="V138" s="126">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10451,44 +10558,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="122" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
-      <c r="G1" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="123" t="s">
+      <c r="G1" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="119" t="s">
+      <c r="S1" s="120" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="39" t="s">
         <v>6</v>
       </c>
@@ -10498,7 +10605,7 @@
       <c r="F2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="122"/>
+      <c r="G2" s="123"/>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
@@ -10532,7 +10639,7 @@
       <c r="R2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="120"/>
+      <c r="S2" s="121"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
@@ -11149,44 +11256,44 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="124" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
-      <c r="G1" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="123" t="s">
+      <c r="G1" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="119" t="s">
+      <c r="S1" s="120" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
       <c r="D2" s="39" t="s">
         <v>6</v>
       </c>
@@ -11196,7 +11303,7 @@
       <c r="F2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="123"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
@@ -11230,7 +11337,7 @@
       <c r="R2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="120"/>
+      <c r="S2" s="121"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -11846,44 +11953,44 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="124" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
-      <c r="G1" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="123" t="s">
+      <c r="G1" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="119" t="s">
+      <c r="S1" s="120" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
       <c r="D2" s="39" t="s">
         <v>6</v>
       </c>
@@ -11893,7 +12000,7 @@
       <c r="F2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="123"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
@@ -11927,7 +12034,7 @@
       <c r="R2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="120"/>
+      <c r="S2" s="121"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
